--- a/DOM_Banner/output/dept_banner/Mohammad Fazel_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Mohammad Fazel_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,217 +360,124 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Mohammad Reza Fazel, Saba Mofidian, Mehrdad Mahdian, Hossein Akbari, Mohammad Reza Razavizadeh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297249956</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The effect of melatonin on prevention of postoperative delirium after lower limb fracture surgery in elderly patients: a randomized double blind clinical trial.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5052750980", "https://openalex.org/A5090255204", "https://openalex.org/A5089522201", "https://openalex.org/A5012552801", "https://openalex.org/A5011580183"), au_display_name = c("Mohammad Reza Fazel", "Saba Mofidian", "Mehrdad Mahdian", "Hossein Akbari", "Mohammad Reza Razavizadeh"), au_orcid = c("https://orcid.org/0000-0002-5383-1997", NA, NA, "https://orcid.org/0000-0001-7486-8580", NA), author_position = c("first", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Kashan University of Medical Sciences, Department of Anesthesiology Kashan, Iran.", 
-"Kashan University of Medical Sciences, Department of Anesthesiology Kashan, Iran.", "Trauma Research Center, Kashan University of Medical Sciences Kashan, Iran.", "Social Determinants of Health (SDH) Research Center, Kashan University of Medical Sciences Kashan, Iran.", "Kashan University of Medical Sciences, Department of Anesthesiology Kashan, Iran."), institution_id = c("https://openalex.org/I198876898", "https://openalex.org/I198876898", "https://openalex.org/I198876898", "https://openalex.org/I198876898", 
-"https://openalex.org/I198876898"), institution_display_name = c("Kashan University of Medical Sciences", "Kashan University of Medical Sciences", "Kashan University of Medical Sciences", "Kashan University of Medical Sciences", "Kashan University of Medical Sciences"), institution_ror = c("https://ror.org/03dc0dy65", "https://ror.org/03dc0dy65", "https://ror.org/03dc0dy65", "https://ror.org/03dc0dy65", "https://ror.org/03dc0dy65"), institution_country_code = c("IR", "IR", "IR", "IR", "IR"), institution_type = c("education", 
-"education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I198876898", "https://openalex.org/I198876898", "https://openalex.org/I198876898", "https://openalex.org/I198876898", "https://openalex.org/I198876898"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Postoperative delirium is a common complication with a high morbidity rate. This study was designed to consider the effectiveness of melatonin in prevention and treatment of postoperative delirium.Seventy-two patients aged &gt;60 years old with Abbreviated Mental Test (AMT) &gt;8 scheduled for orthopedic surgery under spinal anesthesia, were randomly distributed equally to melatonin or placebo groups. In the melatonin group, the patients were given 5 mg melatonin capsules orally the night before surgery, the night of the operation, and two nights after the surgical operation at 9 pm. Likewise, in the placebo group, the patients received placebo in the same times. For diagnosis of postoperative delirium, the AMT test was used before the operation and three days after that. The Generalized estimating equations model (GEE) with logit link to Multivariate analysis was used in the study and P&lt;0.05 was considered statistically significant.In total, 72 patients completed the study. Thirty-three patients (45.8%) were male with a mean (SD) age 71.4 (3.6) years. On the first day after the surgery, the incidence of delirium was significantly lower in the melatonin group compared to the placebo group (22.2% vs. 44.4%, P=0.046). On the second and third days after the surgery, the level of delirium in the melatonin group was also significantly lower than that in the placebo one. The GEE model showed a significant interaction between time and treatment groups.The findings of the study showed that melatonin prevented delirium after the orthopedic surgeries in the elderly patients and could be useful for the patients as such.</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>PubMed</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PubMed</t>
+          <t>National Institutes of Health</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306525036</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36160675</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>National Institutes of Health</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -580,306 +487,119 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36160675</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4297249956</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4297249956", pmid = "https://pubmed.ncbi.nlm.nih.gov/36160675")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W41383725", "https://openalex.org/W1494623787", "https://openalex.org/W1972722328", "https://openalex.org/W1973386434", "https://openalex.org/W1980026247", "https://openalex.org/W1989151967", "https://openalex.org/W2011514739", "https://openalex.org/W2029469073", "https://openalex.org/W2054290601", "https://openalex.org/W2074378860", "https://openalex.org/W2080285331", "https://openalex.org/W2102508576", "https://openalex.org/W2106006850", "https://openalex.org/W2111311321", 
-"https://openalex.org/W2128111962", "https://openalex.org/W2141710162", "https://openalex.org/W2164748247", "https://openalex.org/W2173580788", "https://openalex.org/W2408071337", "https://openalex.org/W2560199223", "https://openalex.org/W2752658361", "https://openalex.org/W2759229677", "https://openalex.org/W2786800555", "https://openalex.org/W2963948875", "https://openalex.org/W2990043848", "https://openalex.org/W3005798401", "https://openalex.org/W3047949456")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2407548838", "https://openalex.org/W4282593720", "https://openalex.org/W4226288832", "https://openalex.org/W2024059783", "https://openalex.org/W3030077877", "https://openalex.org/W2978407504", "https://openalex.org/W4225292301", "https://openalex.org/W2883964849", "https://openalex.org/W2417767551", "https://openalex.org/W4297249956")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Rebecca Thiede, Mohammad Reza Fazel, Karen MacDonald, Ivo Abraham</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297964984</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Does synthetic pharmacotherapy still have a place in treating chronic spontaneous urticaria?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5079556761", "https://openalex.org/A5052750980", "https://openalex.org/A5090261710", "https://openalex.org/A5002479254"), au_display_name = c("Rebecca Thiede", "Mohammad Reza Fazel", "Karen MacDonald", "Ivo Abraham"), au_orcid = c(NA, "https://orcid.org/0000-0002-5383-1997", "https://orcid.org/0000-0002-4568-9783", "https://orcid.org/0000-0003-0490-4421"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.", 
-"Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.", "Matrix45, Tucson, AZ, USA.", "Center for Health Outcomes and PharmacoEconomic Research, University of Arizona, Tucson, AZ, USA.; Matrix45, Tucson, AZ, USA."), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210158408", "https://openalex.org/I4210158408"), institution_display_name = c("University of Arizona", "University of Arizona", "Matrix Research (United States)", 
-"Matrix Research (United States)"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/04mw0p229", "https://ror.org/04mw0p229"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "company", "company"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210158408", "https://openalex.org/I4210158408"
-))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KEYWORDS: Urticariaspontaneous chronic urticariaspontaneous idiopathic urticariaH1 blockersomalizumabcyclosporin</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>Expert Opinion on Pharmacotherapy</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Expert Opinion on Pharmacotherapy</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S52020611</t>
+          <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1465-6566</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36173375</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.tandfonline.com/doi/pdf/10.1080/14656566.2022.2128671?needAccess=true&amp;role=button</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1563</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1567</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.tandfonline.com/doi/pdf/10.1080/14656566.2022.2128671?needAccess=true&amp;role=button</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4297964984</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4297964984", doi = "https://doi.org/10.1080/14656566.2022.2128671", pmid = "https://pubmed.ncbi.nlm.nih.gov/36173375")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/14656566.2022.2128671</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W130205125", "https://openalex.org/W1968667225", "https://openalex.org/W1993225559", "https://openalex.org/W1999299501", "https://openalex.org/W2024045584", "https://openalex.org/W2066390662", "https://openalex.org/W2069724741", "https://openalex.org/W2075154871", "https://openalex.org/W2085255857", "https://openalex.org/W2121663010", "https://openalex.org/W2122930216", "https://openalex.org/W2126118326", "https://openalex.org/W2140012971", "https://openalex.org/W2145824293", 
-"https://openalex.org/W2149809437", "https://openalex.org/W2156152702", "https://openalex.org/W2164501848", "https://openalex.org/W2170610796", "https://openalex.org/W2243756594", "https://openalex.org/W2328847226", "https://openalex.org/W2474968911", "https://openalex.org/W2585403928", "https://openalex.org/W2594179684", "https://openalex.org/W2619731065", "https://openalex.org/W2736673906", "https://openalex.org/W2790269034", "https://openalex.org/W2794161041", "https://openalex.org/W2804965132", 
-"https://openalex.org/W2857688183", "https://openalex.org/W2901940756", "https://openalex.org/W2903336629", "https://openalex.org/W2969921938", "https://openalex.org/W2972685606", "https://openalex.org/W2978592627", "https://openalex.org/W3000972941", "https://openalex.org/W3006719672", "https://openalex.org/W3007315384", "https://openalex.org/W3025104320", "https://openalex.org/W3025256437", "https://openalex.org/W3047456285", "https://openalex.org/W3097354585", "https://openalex.org/W3134788318", 
-"https://openalex.org/W3158816022", "https://openalex.org/W3200862524", "https://openalex.org/W3211732924", "https://openalex.org/W3213611043", "https://openalex.org/W3215058680")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3088605904", "https://openalex.org/W2186070728", "https://openalex.org/W2346803653", "https://openalex.org/W2738981461", "https://openalex.org/W2047534683", "https://openalex.org/W2157706127", "https://openalex.org/W2117456962", "https://openalex.org/W3120531059", "https://openalex.org/W2100562939", "https://openalex.org/W2398697430")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Mohammad Fazel_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Mohammad Fazel_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Kashan University of Medical Sciences, Department of Anesthesiology Kashan, Iran.; Kashan University of Medical Sciences, Department of Anesthesiology Kashan, Iran.; Trauma Research Center, Kashan University of Medical Sciences Kashan, Iran.; Social Determinants of Health (SDH) Research Center, Kashan University of Medical Sciences Kashan, Iran.; Kashan University of Medical Sciences, Department of Anesthesiology Kashan, Iran.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297249956</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The effect of melatonin on prevention of postoperative delirium after lower limb fracture surgery in elderly patients: a randomized double blind clinical trial.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>PubMed</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>National Institutes of Health</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36160675</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36160675</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.; Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.; Matrix45, Tucson, AZ, USA.; Center for Health Outcomes and PharmacoEconomic Research, University of Arizona, Tucson, AZ, USA.; Matrix45, Tucson, AZ, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297964984</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Does synthetic pharmacotherapy still have a place in treating chronic spontaneous urticaria?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Expert Opinion on Pharmacotherapy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36173375</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
